--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.11959609041441</v>
+        <v>0.156219</v>
       </c>
       <c r="N2">
-        <v>4.11959609041441</v>
+        <v>0.468657</v>
       </c>
       <c r="O2">
-        <v>0.8649637054135539</v>
+        <v>0.02370067533399361</v>
       </c>
       <c r="P2">
-        <v>0.8649637054135539</v>
+        <v>0.02639406479478576</v>
       </c>
       <c r="Q2">
-        <v>199.5860696406789</v>
+        <v>7.959395386341001</v>
       </c>
       <c r="R2">
-        <v>199.5860696406789</v>
+        <v>71.63455847706901</v>
       </c>
       <c r="S2">
-        <v>0.137052482290503</v>
+        <v>0.003602517150329703</v>
       </c>
       <c r="T2">
-        <v>0.137052482290503</v>
+        <v>0.004067057418030874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643142582469859</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N3">
-        <v>0.643142582469859</v>
+        <v>13.137322</v>
       </c>
       <c r="O3">
-        <v>0.135036294586446</v>
+        <v>0.6643737391741329</v>
       </c>
       <c r="P3">
-        <v>0.135036294586446</v>
+        <v>0.7398744243614509</v>
       </c>
       <c r="Q3">
-        <v>31.15895282850479</v>
+        <v>223.116565239986</v>
       </c>
       <c r="R3">
-        <v>31.15895282850479</v>
+        <v>2008.049087159874</v>
       </c>
       <c r="S3">
-        <v>0.02139634213152966</v>
+        <v>0.1009852148040117</v>
       </c>
       <c r="T3">
-        <v>0.02139634213152966</v>
+        <v>0.1140071371880932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.6458993053057</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>13.6458993053057</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.04462883962263146</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.04462883962263146</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.11959609041441</v>
+        <v>0.015348</v>
       </c>
       <c r="N4">
-        <v>4.11959609041441</v>
+        <v>0.046044</v>
       </c>
       <c r="O4">
-        <v>0.8649637054135539</v>
+        <v>0.00232851295313716</v>
       </c>
       <c r="P4">
-        <v>0.8649637054135539</v>
+        <v>0.00259312955831475</v>
       </c>
       <c r="Q4">
-        <v>56.21559342832607</v>
+        <v>0.7819842681720001</v>
       </c>
       <c r="R4">
-        <v>56.21559342832607</v>
+        <v>7.037858413548</v>
       </c>
       <c r="S4">
-        <v>0.03860232648829855</v>
+        <v>0.0003539353934109185</v>
       </c>
       <c r="T4">
-        <v>0.03860232648829855</v>
+        <v>0.0003995749380801173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.6458993053057</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>13.6458993053057</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.04462883962263146</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.04462883962263146</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.643142582469859</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N5">
-        <v>0.643142582469859</v>
+        <v>0.068443</v>
       </c>
       <c r="O5">
-        <v>0.135036294586446</v>
+        <v>0.003461263401345813</v>
       </c>
       <c r="P5">
-        <v>0.135036294586446</v>
+        <v>0.003854607904607254</v>
       </c>
       <c r="Q5">
-        <v>8.776258919337963</v>
+        <v>1.162395735959</v>
       </c>
       <c r="R5">
-        <v>8.776258919337963</v>
+        <v>10.461561623631</v>
       </c>
       <c r="S5">
-        <v>0.006026513134332916</v>
+        <v>0.0005261141545309595</v>
       </c>
       <c r="T5">
-        <v>0.006026513134332916</v>
+        <v>0.0005939559440321751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>102.976605029442</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>102.976605029442</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.3367844279017327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.3367844279017327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.11959609041441</v>
+        <v>2.0178425</v>
       </c>
       <c r="N6">
-        <v>4.11959609041441</v>
+        <v>4.035685</v>
       </c>
       <c r="O6">
-        <v>0.8649637054135539</v>
+        <v>0.3061358091373905</v>
       </c>
       <c r="P6">
-        <v>0.8649637054135539</v>
+        <v>0.2272837733808414</v>
       </c>
       <c r="Q6">
-        <v>424.2220194834381</v>
+        <v>102.8095576393575</v>
       </c>
       <c r="R6">
-        <v>424.2220194834381</v>
+        <v>616.857345836145</v>
       </c>
       <c r="S6">
-        <v>0.2913063066834666</v>
+        <v>0.04653283027617744</v>
       </c>
       <c r="T6">
-        <v>0.2913063066834666</v>
+        <v>0.03502212196998215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>102.976605029442</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>102.976605029442</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.3367844279017327</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.3367844279017327</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.643142582469859</v>
+        <v>0.156219</v>
       </c>
       <c r="N7">
-        <v>0.643142582469859</v>
+        <v>0.468657</v>
       </c>
       <c r="O7">
-        <v>0.135036294586446</v>
+        <v>0.02370067533399361</v>
       </c>
       <c r="P7">
-        <v>0.135036294586446</v>
+        <v>0.02639406479478576</v>
       </c>
       <c r="Q7">
-        <v>66.228639692614</v>
+        <v>2.374084721456</v>
       </c>
       <c r="R7">
-        <v>66.228639692614</v>
+        <v>21.366762493104</v>
       </c>
       <c r="S7">
-        <v>0.04547812121826606</v>
+        <v>0.001074539020898256</v>
       </c>
       <c r="T7">
-        <v>0.04547812121826606</v>
+        <v>0.001213099539445058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>129.698528092637</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>129.698528092637</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.4241783322618462</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.4241783322618462</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.11959609041441</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N8">
-        <v>4.11959609041441</v>
+        <v>13.137322</v>
       </c>
       <c r="O8">
-        <v>0.8649637054135539</v>
+        <v>0.6643737391741329</v>
       </c>
       <c r="P8">
-        <v>0.8649637054135539</v>
+        <v>0.7398744243614509</v>
       </c>
       <c r="Q8">
-        <v>534.3055492629309</v>
+        <v>66.54998312422043</v>
       </c>
       <c r="R8">
-        <v>534.3055492629309</v>
+        <v>598.9498481179839</v>
       </c>
       <c r="S8">
-        <v>0.3668988620293481</v>
+        <v>0.03012131498965153</v>
       </c>
       <c r="T8">
-        <v>0.3668988620293481</v>
+        <v>0.03400542244699518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>129.698528092637</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>129.698528092637</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.4241783322618462</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.4241783322618462</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.643142582469859</v>
+        <v>0.015348</v>
       </c>
       <c r="N9">
-        <v>0.643142582469859</v>
+        <v>0.046044</v>
       </c>
       <c r="O9">
-        <v>0.135036294586446</v>
+        <v>0.00232851295313716</v>
       </c>
       <c r="P9">
-        <v>0.135036294586446</v>
+        <v>0.00259312955831475</v>
       </c>
       <c r="Q9">
-        <v>83.41464630003811</v>
+        <v>0.233245970752</v>
       </c>
       <c r="R9">
-        <v>83.41464630003811</v>
+        <v>2.099213736768</v>
       </c>
       <c r="S9">
-        <v>0.05727947023249803</v>
+        <v>0.0001055699043826067</v>
       </c>
       <c r="T9">
-        <v>0.05727947023249803</v>
+        <v>0.0001191830169915487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9951492009438</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>10.9951492009438</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.03595957579175706</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.03595957579175706</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.11959609041441</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N10">
-        <v>4.11959609041441</v>
+        <v>0.068443</v>
       </c>
       <c r="O10">
-        <v>0.8649637054135539</v>
+        <v>0.003461263401345813</v>
       </c>
       <c r="P10">
-        <v>0.8649637054135539</v>
+        <v>0.003854607904607254</v>
       </c>
       <c r="Q10">
-        <v>45.2955736617312</v>
+        <v>0.3467130131217778</v>
       </c>
       <c r="R10">
-        <v>45.2955736617312</v>
+        <v>3.120417118096</v>
       </c>
       <c r="S10">
-        <v>0.03110372792193771</v>
+        <v>0.0001569264391811908</v>
       </c>
       <c r="T10">
-        <v>0.03110372792193771</v>
+        <v>0.0001771619153842535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9951492009438</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>10.9951492009438</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.03595957579175706</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.03595957579175706</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.643142582469859</v>
+        <v>2.0178425</v>
       </c>
       <c r="N11">
-        <v>0.643142582469859</v>
+        <v>4.035685</v>
       </c>
       <c r="O11">
-        <v>0.135036294586446</v>
+        <v>0.3061358091373905</v>
       </c>
       <c r="P11">
-        <v>0.135036294586446</v>
+        <v>0.2272837733808414</v>
       </c>
       <c r="Q11">
-        <v>7.071448651736402</v>
+        <v>30.66546994638666</v>
       </c>
       <c r="R11">
-        <v>7.071448651736402</v>
+        <v>183.99281967832</v>
       </c>
       <c r="S11">
-        <v>0.004855847869819338</v>
+        <v>0.01387955693146729</v>
       </c>
       <c r="T11">
-        <v>0.004855847869819338</v>
+        <v>0.01044620610562805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>124.2523</v>
+      </c>
+      <c r="H12">
+        <v>372.7569</v>
+      </c>
+      <c r="I12">
+        <v>0.3706837491945981</v>
+      </c>
+      <c r="J12">
+        <v>0.375778766284743</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.156219</v>
+      </c>
+      <c r="N12">
+        <v>0.468657</v>
+      </c>
+      <c r="O12">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P12">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q12">
+        <v>19.4105700537</v>
+      </c>
+      <c r="R12">
+        <v>174.6951304833</v>
+      </c>
+      <c r="S12">
+        <v>0.008785455191248686</v>
+      </c>
+      <c r="T12">
+        <v>0.009918329105824164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>124.2523</v>
+      </c>
+      <c r="H13">
+        <v>372.7569</v>
+      </c>
+      <c r="I13">
+        <v>0.3706837491945981</v>
+      </c>
+      <c r="J13">
+        <v>0.375778766284743</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.137322</v>
+      </c>
+      <c r="O13">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P13">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q13">
+        <v>544.1141581135332</v>
+      </c>
+      <c r="R13">
+        <v>4897.027423021799</v>
+      </c>
+      <c r="S13">
+        <v>0.2462725485035016</v>
+      </c>
+      <c r="T13">
+        <v>0.2780290983921804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>124.2523</v>
+      </c>
+      <c r="H14">
+        <v>372.7569</v>
+      </c>
+      <c r="I14">
+        <v>0.3706837491945981</v>
+      </c>
+      <c r="J14">
+        <v>0.375778766284743</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.015348</v>
+      </c>
+      <c r="N14">
+        <v>0.046044</v>
+      </c>
+      <c r="O14">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P14">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q14">
+        <v>1.9070243004</v>
+      </c>
+      <c r="R14">
+        <v>17.1632187036</v>
+      </c>
+      <c r="S14">
+        <v>0.000863141911517068</v>
+      </c>
+      <c r="T14">
+        <v>0.0009744430262400174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>124.2523</v>
+      </c>
+      <c r="H15">
+        <v>372.7569</v>
+      </c>
+      <c r="I15">
+        <v>0.3706837491945981</v>
+      </c>
+      <c r="J15">
+        <v>0.375778766284743</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.068443</v>
+      </c>
+      <c r="O15">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P15">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q15">
+        <v>2.834733389633334</v>
+      </c>
+      <c r="R15">
+        <v>25.5126005067</v>
+      </c>
+      <c r="S15">
+        <v>0.001283034094560913</v>
+      </c>
+      <c r="T15">
+        <v>0.001448479802904733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>124.2523</v>
+      </c>
+      <c r="H16">
+        <v>372.7569</v>
+      </c>
+      <c r="I16">
+        <v>0.3706837491945981</v>
+      </c>
+      <c r="J16">
+        <v>0.375778766284743</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.0178425</v>
+      </c>
+      <c r="N16">
+        <v>4.035685</v>
+      </c>
+      <c r="O16">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P16">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q16">
+        <v>250.72157166275</v>
+      </c>
+      <c r="R16">
+        <v>1504.3294299765</v>
+      </c>
+      <c r="S16">
+        <v>0.1134795694937698</v>
+      </c>
+      <c r="T16">
+        <v>0.0854084159575937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>131.1635103333333</v>
+      </c>
+      <c r="H17">
+        <v>393.490531</v>
+      </c>
+      <c r="I17">
+        <v>0.3913020665845575</v>
+      </c>
+      <c r="J17">
+        <v>0.3966804807205673</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.156219</v>
+      </c>
+      <c r="N17">
+        <v>0.468657</v>
+      </c>
+      <c r="O17">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P17">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q17">
+        <v>20.490232420763</v>
+      </c>
+      <c r="R17">
+        <v>184.412091786867</v>
+      </c>
+      <c r="S17">
+        <v>0.009274123237641348</v>
+      </c>
+      <c r="T17">
+        <v>0.01047001031096542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>131.1635103333333</v>
+      </c>
+      <c r="H18">
+        <v>393.490531</v>
+      </c>
+      <c r="I18">
+        <v>0.3913020665845575</v>
+      </c>
+      <c r="J18">
+        <v>0.3966804807205673</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N18">
+        <v>13.137322</v>
+      </c>
+      <c r="O18">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P18">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q18">
+        <v>574.3790899664424</v>
+      </c>
+      <c r="R18">
+        <v>5169.411809697982</v>
+      </c>
+      <c r="S18">
+        <v>0.259970817123348</v>
+      </c>
+      <c r="T18">
+        <v>0.2934937423285534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>131.1635103333333</v>
+      </c>
+      <c r="H19">
+        <v>393.490531</v>
+      </c>
+      <c r="I19">
+        <v>0.3913020665845575</v>
+      </c>
+      <c r="J19">
+        <v>0.3966804807205673</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.015348</v>
+      </c>
+      <c r="N19">
+        <v>0.046044</v>
+      </c>
+      <c r="O19">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P19">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q19">
+        <v>2.013097556596</v>
+      </c>
+      <c r="R19">
+        <v>18.117878009364</v>
+      </c>
+      <c r="S19">
+        <v>0.0009111519306314816</v>
+      </c>
+      <c r="T19">
+        <v>0.001028643879763007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>131.1635103333333</v>
+      </c>
+      <c r="H20">
+        <v>393.490531</v>
+      </c>
+      <c r="I20">
+        <v>0.3913020665845575</v>
+      </c>
+      <c r="J20">
+        <v>0.3966804807205673</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.068443</v>
+      </c>
+      <c r="O20">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P20">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q20">
+        <v>2.992408045914778</v>
+      </c>
+      <c r="R20">
+        <v>26.931672413233</v>
+      </c>
+      <c r="S20">
+        <v>0.001354399521940111</v>
+      </c>
+      <c r="T20">
+        <v>0.001529047716588904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>131.1635103333333</v>
+      </c>
+      <c r="H21">
+        <v>393.490531</v>
+      </c>
+      <c r="I21">
+        <v>0.3913020665845575</v>
+      </c>
+      <c r="J21">
+        <v>0.3966804807205673</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.0178425</v>
+      </c>
+      <c r="N21">
+        <v>4.035685</v>
+      </c>
+      <c r="O21">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P21">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q21">
+        <v>264.6673055997892</v>
+      </c>
+      <c r="R21">
+        <v>1588.003833598735</v>
+      </c>
+      <c r="S21">
+        <v>0.1197915747709966</v>
+      </c>
+      <c r="T21">
+        <v>0.09015903648469664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.634385</v>
+      </c>
+      <c r="H22">
+        <v>27.26877</v>
+      </c>
+      <c r="I22">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J22">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.156219</v>
+      </c>
+      <c r="N22">
+        <v>0.468657</v>
+      </c>
+      <c r="O22">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P22">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q22">
+        <v>2.129949990315</v>
+      </c>
+      <c r="R22">
+        <v>12.77969994189</v>
+      </c>
+      <c r="S22">
+        <v>0.0009640407338756162</v>
+      </c>
+      <c r="T22">
+        <v>0.00072556842052025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.634385</v>
+      </c>
+      <c r="H23">
+        <v>27.26877</v>
+      </c>
+      <c r="I23">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J23">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N23">
+        <v>13.137322</v>
+      </c>
+      <c r="O23">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P23">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q23">
+        <v>59.70643533898999</v>
+      </c>
+      <c r="R23">
+        <v>358.23861203394</v>
+      </c>
+      <c r="S23">
+        <v>0.02702384375361998</v>
+      </c>
+      <c r="T23">
+        <v>0.0203390240056287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.634385</v>
+      </c>
+      <c r="H24">
+        <v>27.26877</v>
+      </c>
+      <c r="I24">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J24">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.015348</v>
+      </c>
+      <c r="N24">
+        <v>0.046044</v>
+      </c>
+      <c r="O24">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P24">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q24">
+        <v>0.20926054098</v>
+      </c>
+      <c r="R24">
+        <v>1.25556324588</v>
+      </c>
+      <c r="S24">
+        <v>9.471381319508484E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.128469724005914E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.634385</v>
+      </c>
+      <c r="H25">
+        <v>27.26877</v>
+      </c>
+      <c r="I25">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J25">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.068443</v>
+      </c>
+      <c r="O25">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P25">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q25">
+        <v>0.3110594041850001</v>
+      </c>
+      <c r="R25">
+        <v>1.86635642511</v>
+      </c>
+      <c r="S25">
+        <v>0.0001407891911326382</v>
+      </c>
+      <c r="T25">
+        <v>0.0001059625256971889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.634385</v>
+      </c>
+      <c r="H26">
+        <v>27.26877</v>
+      </c>
+      <c r="I26">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J26">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.0178425</v>
+      </c>
+      <c r="N26">
+        <v>4.035685</v>
+      </c>
+      <c r="O26">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P26">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q26">
+        <v>27.5120415143625</v>
+      </c>
+      <c r="R26">
+        <v>110.04816605745</v>
+      </c>
+      <c r="S26">
+        <v>0.01245227766497934</v>
+      </c>
+      <c r="T26">
+        <v>0.006247992862940839</v>
       </c>
     </row>
   </sheetData>
